--- a/NWU Tech Trends Data.xlsx
+++ b/NWU Tech Trends Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\OneDrive\Desktop\JM Repo\JM Work Repo\NWU\Modules\2024 CMPG323\Project 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aussc\OneDrive\Documents\GitHub\CMPG323-Project-4-37460366\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B432EAD3-C6FE-4098-AA29-885124F46384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E770763-C845-4571-8389-54D28D9176CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -51,457 +51,457 @@
     <t>DateOnboarded</t>
   </si>
   <si>
+    <t>Test Passed</t>
+  </si>
+  <si>
+    <t>68c53a7b-2b9e-4dbe-a536-4d1a2f27a0b7</t>
+  </si>
+  <si>
     <t>Tech Innovators</t>
   </si>
   <si>
     <t>contact1@techinnovators.com</t>
   </si>
   <si>
+    <t>77af89a2-7c76-4263-a8ee-2b25541f89af</t>
+  </si>
+  <si>
     <t>Data Dynamics</t>
   </si>
   <si>
     <t>contact2@datadynamics.com</t>
   </si>
   <si>
+    <t>f5a92c1a-59b0-496f-8d17-64bdf59d3f6a</t>
+  </si>
+  <si>
     <t>Cloud Solutions</t>
   </si>
   <si>
     <t>contact3@cloudsolutions.com</t>
   </si>
   <si>
+    <t>c1c1fbb6-9a94-41b7-94f8-7a621aa1a7b6</t>
+  </si>
+  <si>
     <t>AI Pioneers</t>
   </si>
   <si>
     <t>contact4@aipioneers.com</t>
   </si>
   <si>
+    <t>9e58f2fa-d8a8-46c7-988a-2bb0c9c78f94</t>
+  </si>
+  <si>
     <t>Green Energy Corp</t>
   </si>
   <si>
     <t>contact5@greenenergy.com</t>
   </si>
   <si>
+    <t>7354b235-763d-4031-a92b-17249e674c94</t>
+  </si>
+  <si>
     <t>Fintech Leaders</t>
   </si>
   <si>
     <t>contact6@fintechleaders.com</t>
   </si>
   <si>
+    <t>5027f96e-1544-4992-848e-b8a3f56ccf4e</t>
+  </si>
+  <si>
     <t>HealthTech Group</t>
   </si>
   <si>
     <t>contact7@healthtech.com</t>
   </si>
   <si>
+    <t>d1c5e2d9-394b-43a6-8c56-d8f19a59b25e</t>
+  </si>
+  <si>
     <t>EduTech Innovators</t>
   </si>
   <si>
     <t>contact8@edutech.com</t>
   </si>
   <si>
+    <t>6b07b6a3-60e6-453d-b93c-726d17445f29</t>
+  </si>
+  <si>
     <t>Smart Homes Inc.</t>
   </si>
   <si>
     <t>contact9@smarthomes.com</t>
   </si>
   <si>
+    <t>1e16a30c-bdbc-44b6-882d-e1d58e5f7f3b</t>
+  </si>
+  <si>
     <t>AutoTech Solutions</t>
   </si>
   <si>
     <t>contact10@autotech.com</t>
   </si>
   <si>
+    <t>aae3c38e-2da5-4ba8-bc2b-b843f4ed6e50</t>
+  </si>
+  <si>
     <t>Space Explorers</t>
   </si>
   <si>
     <t>contact11@spaceexplorers.com</t>
   </si>
   <si>
+    <t>e5ad76be-bcdc-43a2-a8c5-73c1a2eec27e</t>
+  </si>
+  <si>
     <t>BioTech Innovations</t>
   </si>
   <si>
     <t>contact12@biotech.com</t>
   </si>
   <si>
+    <t>57a6586a-7ef2-4d67-839b-4a8a15970848</t>
+  </si>
+  <si>
     <t>Quantum Computing</t>
   </si>
   <si>
     <t>contact13@quantumcomputing.com</t>
   </si>
   <si>
+    <t>a95839d2-780b-4484-9955-52c2c16fa46f</t>
+  </si>
+  <si>
     <t>Cybersecurity Pros</t>
   </si>
   <si>
     <t>contact14@cyberpros.com</t>
   </si>
   <si>
+    <t>8ffb5d76-4954-4e18-8f5f-8243827fa212</t>
+  </si>
+  <si>
     <t>Robotics Ventures</t>
   </si>
   <si>
     <t>contact15@roboticsventures.com</t>
   </si>
   <si>
+    <t>1f5d9c9b-49f0-4f23-85c1-74c1b8b4e21f</t>
+  </si>
+  <si>
     <t>Blockchain Pioneers</t>
   </si>
   <si>
     <t>contact16@blockchain.com</t>
   </si>
   <si>
+    <t>66e56de0-623a-4b40-a498-0b3a77f04c16</t>
+  </si>
+  <si>
     <t>AgriTech Innovators</t>
   </si>
   <si>
     <t>contact17@agritech.com</t>
   </si>
   <si>
+    <t>493c2566-5533-476d-8a13-c4312a0a2f8b</t>
+  </si>
+  <si>
     <t>Digital Nomads</t>
   </si>
   <si>
     <t>contact18@digitalnomads.com</t>
   </si>
   <si>
+    <t>728ea0fb-c5e5-4f23-a7ff-1b6f88b1d5f6</t>
+  </si>
+  <si>
     <t>AI Healthcare</t>
   </si>
   <si>
     <t>contact19@aihealthcare.com</t>
   </si>
   <si>
+    <t>4f03b878-8be8-4f6b-a5e6-129d42bf0b34</t>
+  </si>
+  <si>
     <t>E-Commerce Wizards</t>
   </si>
   <si>
     <t>contact20@ecommerce.com</t>
   </si>
   <si>
+    <t>8be2454b-7a74-4dbe-bd53-b650e1a5a2b4</t>
+  </si>
+  <si>
     <t>VR/AR Experiences</t>
   </si>
   <si>
     <t>contact21@vrexperiences.com</t>
   </si>
   <si>
+    <t>acd4b8fb-f9cb-4139-990e-1e962b7a88fa</t>
+  </si>
+  <si>
     <t>Autonomous Vehicles</t>
   </si>
   <si>
     <t>contact22@autovehicles.com</t>
   </si>
   <si>
+    <t>92e28dfc-9f74-41a4-9d91-e77a3d5a1c3b</t>
+  </si>
+  <si>
     <t>Fintech Ventures</t>
   </si>
   <si>
     <t>contact23@fintechventures.com</t>
   </si>
   <si>
+    <t>5e79a6f3-5c49-4c47-9578-2e1a2b53c9fc</t>
+  </si>
+  <si>
     <t>Renewable Energy</t>
   </si>
   <si>
     <t>contact24@renewable.com</t>
   </si>
   <si>
+    <t>c41d7c1f-f70c-4d42-94f3-2a4f3d4e2f94</t>
+  </si>
+  <si>
     <t>SpaceTech Partners</t>
   </si>
   <si>
     <t>contact25@spacetech.com</t>
   </si>
   <si>
+    <t>9f61743a-2a4f-4bc5-89e9-5c0b75607b6a</t>
+  </si>
+  <si>
     <t>Smart City Projects</t>
   </si>
   <si>
     <t>contact26@smartcity.com</t>
   </si>
   <si>
+    <t>aab312df-2e45-4d6b-b357-cc54104ad2b9</t>
+  </si>
+  <si>
     <t>AI Research Labs</t>
   </si>
   <si>
     <t>contact27@airesearch.com</t>
   </si>
   <si>
+    <t>4e25474e-1a12-409f-9207-531c28470c6a</t>
+  </si>
+  <si>
     <t>Crypto Innovators</t>
   </si>
   <si>
     <t>contact28@crypto.com</t>
   </si>
   <si>
+    <t>3df36be5-493d-4915-8fc3-4ed23d742d86</t>
+  </si>
+  <si>
     <t>GreenTech Solutions</t>
   </si>
   <si>
     <t>contact29@greentech.com</t>
   </si>
   <si>
+    <t>a75b6f3e-542b-40f2-a129-4a9c72a86e7e</t>
+  </si>
+  <si>
     <t>Digital Transformation</t>
   </si>
   <si>
     <t>contact30@digitaltrans.com</t>
   </si>
   <si>
+    <t>f3b7e5a2-38a9-4a9f-8e79-fb2a2a7c7f93</t>
+  </si>
+  <si>
     <t>AI Financials</t>
   </si>
   <si>
     <t>contact31@aifinancials.com</t>
   </si>
   <si>
+    <t>bcb3759d-c9a7-4fa6-9a74-72a4c5b3c6ae</t>
+  </si>
+  <si>
     <t>Quantum Ventures</t>
   </si>
   <si>
     <t>contact32@quantumventures.com</t>
   </si>
   <si>
+    <t>4e02d7af-2b47-48d5-9d7f-3b85f3a3c6f3</t>
+  </si>
+  <si>
     <t>VR Innovators</t>
   </si>
   <si>
     <t>contact33@vrinnovators.com</t>
   </si>
   <si>
+    <t>85a3c6d5-c94a-49d6-b8f4-0f39b3c7c9fe</t>
+  </si>
+  <si>
     <t>AutoTech Innovators</t>
   </si>
   <si>
     <t>contact34@autotechinnovators.com</t>
   </si>
   <si>
+    <t>71f5b2e7-3c14-41d5-b8f5-4b9f4a7c2c7f</t>
+  </si>
+  <si>
     <t>AI Solutions</t>
   </si>
   <si>
     <t>contact35@aisolutions.com</t>
   </si>
   <si>
+    <t>4b78c3e9-5a4e-43f7-bc47-1a2b5a6c2d7f</t>
+  </si>
+  <si>
     <t>Fintech Masters</t>
   </si>
   <si>
     <t>contact36@fintechmasters.com</t>
   </si>
   <si>
+    <t>67f2b6f7-3c15-45f9-8b76-3f9a5b7f3d9a</t>
+  </si>
+  <si>
     <t>Renewable Innovations</t>
   </si>
   <si>
     <t>contact37@renewableinnovations.com</t>
   </si>
   <si>
+    <t>89b6f3e7-4c27-49f3-b7a2-2f39a5c7c8f3</t>
+  </si>
+  <si>
     <t>Cybersecurity Labs</t>
   </si>
   <si>
     <t>contact38@cyberlabs.com</t>
   </si>
   <si>
+    <t>6c8f2d3b-5d4a-4a8b-946c-2e9a4b5c8f47</t>
+  </si>
+  <si>
     <t>HealthTech Ventures</t>
   </si>
   <si>
     <t>contact39@healthventures.com</t>
   </si>
   <si>
+    <t>74f3c2d8-4a3d-40f8-b5c7-2a6b4f3d7f89</t>
+  </si>
+  <si>
     <t>AI Energy Solutions</t>
   </si>
   <si>
     <t>contact40@aienergy.com</t>
   </si>
   <si>
+    <t>5d7f2e4a-6b3c-4b6f-9f47-1c8b5e3c7f9a</t>
+  </si>
+  <si>
     <t>VR Labs</t>
   </si>
   <si>
     <t>contact41@vrlabs.com</t>
   </si>
   <si>
+    <t>82f9c3e4-5d7f-44b8-b5c7-2a9f4d7c8b6f</t>
+  </si>
+  <si>
     <t>AI Enterprises</t>
   </si>
   <si>
     <t>contact42@aienterprises.com</t>
   </si>
   <si>
+    <t>7f5c4d8e-6b3c-4f6b-8f4a-3b9f4e5c7d8f</t>
+  </si>
+  <si>
     <t>Blockchain Masters</t>
   </si>
   <si>
     <t>contact43@blockchainmasters.com</t>
   </si>
   <si>
+    <t>9a8f6c5d-3e2a-4f9b-8f4c-1a7d4c5b7e8f</t>
+  </si>
+  <si>
     <t>GreenTech Ventures</t>
   </si>
   <si>
     <t>contact44@greentechventures.com</t>
   </si>
   <si>
+    <t>7b3e4f8d-9a6b-4d7f-b4f9-2a8f4c5d7e9b</t>
+  </si>
+  <si>
     <t>EduTech Leaders</t>
   </si>
   <si>
     <t>contact45@edutechleaders.com</t>
   </si>
   <si>
+    <t>8d6f7e5c-3c2a-4b9f-8f5a-3d7f4c5b6a9e</t>
+  </si>
+  <si>
     <t>AI in Finance</t>
   </si>
   <si>
     <t>contact46@aiinfinance.com</t>
   </si>
   <si>
+    <t>6a5b3c8f-7d2e-4b9f-8f5d-2f9b4d5c7e8f</t>
+  </si>
+  <si>
     <t>Smart Tech</t>
   </si>
   <si>
     <t>contact47@smarttech.com</t>
   </si>
   <si>
+    <t>7c8f4d6e-3a2f-4f8b-9f5c-1d7e4c5b8f9a</t>
+  </si>
+  <si>
     <t>E-Commerce Innovators</t>
   </si>
   <si>
     <t>contact48@ecommerceinnovators.com</t>
   </si>
   <si>
+    <t>8e9f5d3c-2b4a-4f6b-8f9c-3a7e4c5d7b8f</t>
+  </si>
+  <si>
     <t>Space Ventures</t>
   </si>
   <si>
     <t>contact49@spaceventures.com</t>
   </si>
   <si>
+    <t>9b7f4d8c-3e2f-4f9b-8f5a-2c7e4b5d6a9f</t>
+  </si>
+  <si>
     <t>Robotics Innovators</t>
   </si>
   <si>
     <t>contact50@roboticsinnovators.com</t>
-  </si>
-  <si>
-    <t>Test Passed</t>
-  </si>
-  <si>
-    <t>68c53a7b-2b9e-4dbe-a536-4d1a2f27a0b7</t>
-  </si>
-  <si>
-    <t>77af89a2-7c76-4263-a8ee-2b25541f89af</t>
-  </si>
-  <si>
-    <t>f5a92c1a-59b0-496f-8d17-64bdf59d3f6a</t>
-  </si>
-  <si>
-    <t>c1c1fbb6-9a94-41b7-94f8-7a621aa1a7b6</t>
-  </si>
-  <si>
-    <t>9e58f2fa-d8a8-46c7-988a-2bb0c9c78f94</t>
-  </si>
-  <si>
-    <t>7354b235-763d-4031-a92b-17249e674c94</t>
-  </si>
-  <si>
-    <t>5027f96e-1544-4992-848e-b8a3f56ccf4e</t>
-  </si>
-  <si>
-    <t>d1c5e2d9-394b-43a6-8c56-d8f19a59b25e</t>
-  </si>
-  <si>
-    <t>6b07b6a3-60e6-453d-b93c-726d17445f29</t>
-  </si>
-  <si>
-    <t>1e16a30c-bdbc-44b6-882d-e1d58e5f7f3b</t>
-  </si>
-  <si>
-    <t>aae3c38e-2da5-4ba8-bc2b-b843f4ed6e50</t>
-  </si>
-  <si>
-    <t>e5ad76be-bcdc-43a2-a8c5-73c1a2eec27e</t>
-  </si>
-  <si>
-    <t>57a6586a-7ef2-4d67-839b-4a8a15970848</t>
-  </si>
-  <si>
-    <t>a95839d2-780b-4484-9955-52c2c16fa46f</t>
-  </si>
-  <si>
-    <t>8ffb5d76-4954-4e18-8f5f-8243827fa212</t>
-  </si>
-  <si>
-    <t>1f5d9c9b-49f0-4f23-85c1-74c1b8b4e21f</t>
-  </si>
-  <si>
-    <t>66e56de0-623a-4b40-a498-0b3a77f04c16</t>
-  </si>
-  <si>
-    <t>493c2566-5533-476d-8a13-c4312a0a2f8b</t>
-  </si>
-  <si>
-    <t>728ea0fb-c5e5-4f23-a7ff-1b6f88b1d5f6</t>
-  </si>
-  <si>
-    <t>4f03b878-8be8-4f6b-a5e6-129d42bf0b34</t>
-  </si>
-  <si>
-    <t>8be2454b-7a74-4dbe-bd53-b650e1a5a2b4</t>
-  </si>
-  <si>
-    <t>acd4b8fb-f9cb-4139-990e-1e962b7a88fa</t>
-  </si>
-  <si>
-    <t>92e28dfc-9f74-41a4-9d91-e77a3d5a1c3b</t>
-  </si>
-  <si>
-    <t>5e79a6f3-5c49-4c47-9578-2e1a2b53c9fc</t>
-  </si>
-  <si>
-    <t>c41d7c1f-f70c-4d42-94f3-2a4f3d4e2f94</t>
-  </si>
-  <si>
-    <t>9f61743a-2a4f-4bc5-89e9-5c0b75607b6a</t>
-  </si>
-  <si>
-    <t>aab312df-2e45-4d6b-b357-cc54104ad2b9</t>
-  </si>
-  <si>
-    <t>4e25474e-1a12-409f-9207-531c28470c6a</t>
-  </si>
-  <si>
-    <t>3df36be5-493d-4915-8fc3-4ed23d742d86</t>
-  </si>
-  <si>
-    <t>a75b6f3e-542b-40f2-a129-4a9c72a86e7e</t>
-  </si>
-  <si>
-    <t>f3b7e5a2-38a9-4a9f-8e79-fb2a2a7c7f93</t>
-  </si>
-  <si>
-    <t>bcb3759d-c9a7-4fa6-9a74-72a4c5b3c6ae</t>
-  </si>
-  <si>
-    <t>4e02d7af-2b47-48d5-9d7f-3b85f3a3c6f3</t>
-  </si>
-  <si>
-    <t>85a3c6d5-c94a-49d6-b8f4-0f39b3c7c9fe</t>
-  </si>
-  <si>
-    <t>71f5b2e7-3c14-41d5-b8f5-4b9f4a7c2c7f</t>
-  </si>
-  <si>
-    <t>4b78c3e9-5a4e-43f7-bc47-1a2b5a6c2d7f</t>
-  </si>
-  <si>
-    <t>67f2b6f7-3c15-45f9-8b76-3f9a5b7f3d9a</t>
-  </si>
-  <si>
-    <t>89b6f3e7-4c27-49f3-b7a2-2f39a5c7c8f3</t>
-  </si>
-  <si>
-    <t>6c8f2d3b-5d4a-4a8b-946c-2e9a4b5c8f47</t>
-  </si>
-  <si>
-    <t>74f3c2d8-4a3d-40f8-b5c7-2a6b4f3d7f89</t>
-  </si>
-  <si>
-    <t>5d7f2e4a-6b3c-4b6f-9f47-1c8b5e3c7f9a</t>
-  </si>
-  <si>
-    <t>82f9c3e4-5d7f-44b8-b5c7-2a9f4d7c8b6f</t>
-  </si>
-  <si>
-    <t>7f5c4d8e-6b3c-4f6b-8f4a-3b9f4e5c7d8f</t>
-  </si>
-  <si>
-    <t>9a8f6c5d-3e2a-4f9b-8f4c-1a7d4c5b7e8f</t>
-  </si>
-  <si>
-    <t>7b3e4f8d-9a6b-4d7f-b4f9-2a8f4c5d7e9b</t>
-  </si>
-  <si>
-    <t>8d6f7e5c-3c2a-4b9f-8f5a-3d7f4c5b6a9e</t>
-  </si>
-  <si>
-    <t>6a5b3c8f-7d2e-4b9f-8f5d-2f9b4d5c7e8f</t>
-  </si>
-  <si>
-    <t>7c8f4d6e-3a2f-4f8b-9f5c-1d7e4c5b8f9a</t>
-  </si>
-  <si>
-    <t>8e9f5d3c-2b4a-4f6b-8f9c-3a7e4c5d7b8f</t>
-  </si>
-  <si>
-    <t>9b7f4d8c-3e2f-4f9b-8f5a-2c7e4b5d6a9f</t>
   </si>
   <si>
     <t>ProjectID</t>
@@ -1324,18 +1324,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC1F3F-070D-4831-8C1F-2CBF832928B6}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1349,704 +1349,740 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>44941</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>44942</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>44943</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>44944</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>44945</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>44946</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>44947</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>44948</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>44949</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>44950</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2">
         <v>44951</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2">
         <v>44952</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2">
         <v>44953</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2">
         <v>44954</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2">
         <v>44955</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2">
         <v>44956</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2">
         <v>44957</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2">
         <v>44958</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2">
         <v>44959</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2">
         <v>44960</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2">
         <v>44961</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2">
         <v>44962</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2">
         <v>44963</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2">
         <v>44964</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2">
         <v>44965</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2">
         <v>44966</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2">
         <v>44967</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2">
         <v>44968</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2">
         <v>44969</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2">
         <v>44970</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2">
         <v>44971</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2">
         <v>44972</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2">
         <v>44973</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2">
         <v>44974</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2">
         <v>44975</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2">
         <v>44976</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2">
         <v>44977</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2">
         <v>44978</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2">
         <v>44979</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2">
         <v>44980</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D42" s="2">
         <v>44981</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2">
         <v>44982</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2">
         <v>44983</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2">
         <v>44984</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D46" s="2">
         <v>44985</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2">
         <v>44986</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2">
         <v>44987</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="D49" s="2">
         <v>44988</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2">
         <v>44989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D51" s="2">
         <v>44990</v>
@@ -2061,20 +2097,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D331589-AA9D-4074-9BAA-5A515B94893D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>155</v>
       </c>
@@ -2094,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>160</v>
       </c>
@@ -2114,10 +2151,10 @@
         <v>163</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>164</v>
       </c>
@@ -2134,10 +2171,10 @@
         <v>167</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
@@ -2154,10 +2191,10 @@
         <v>171</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -2174,10 +2211,10 @@
         <v>163</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -2194,10 +2231,10 @@
         <v>163</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>178</v>
       </c>
@@ -2214,10 +2251,10 @@
         <v>167</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
@@ -2234,10 +2271,10 @@
         <v>163</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>184</v>
       </c>
@@ -2254,10 +2291,10 @@
         <v>163</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
@@ -2274,10 +2311,10 @@
         <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>190</v>
       </c>
@@ -2294,10 +2331,10 @@
         <v>163</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>193</v>
       </c>
@@ -2314,10 +2351,10 @@
         <v>163</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>196</v>
       </c>
@@ -2334,10 +2371,10 @@
         <v>163</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>199</v>
       </c>
@@ -2354,10 +2391,10 @@
         <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2374,10 +2411,10 @@
         <v>163</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>205</v>
       </c>
@@ -2394,10 +2431,10 @@
         <v>167</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>208</v>
       </c>
@@ -2414,10 +2451,10 @@
         <v>171</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>211</v>
       </c>
@@ -2434,10 +2471,10 @@
         <v>163</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
@@ -2454,10 +2491,10 @@
         <v>167</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>217</v>
       </c>
@@ -2474,10 +2511,10 @@
         <v>163</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>220</v>
       </c>
@@ -2494,10 +2531,10 @@
         <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -2514,10 +2551,10 @@
         <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>226</v>
       </c>
@@ -2537,7 +2574,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>229</v>
       </c>
@@ -2554,10 +2591,10 @@
         <v>163</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -2574,10 +2611,10 @@
         <v>171</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>235</v>
       </c>
@@ -2594,10 +2631,10 @@
         <v>163</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>238</v>
       </c>
@@ -2614,10 +2651,10 @@
         <v>163</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -2634,10 +2671,10 @@
         <v>163</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>244</v>
       </c>
@@ -2654,10 +2691,10 @@
         <v>163</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>247</v>
       </c>
@@ -2674,10 +2711,10 @@
         <v>163</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>250</v>
       </c>
@@ -2694,10 +2731,10 @@
         <v>167</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>253</v>
       </c>
@@ -2714,10 +2751,10 @@
         <v>171</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>256</v>
       </c>
@@ -2737,7 +2774,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>259</v>
       </c>
@@ -2754,10 +2791,10 @@
         <v>163</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>262</v>
       </c>
@@ -2777,7 +2814,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>265</v>
       </c>
@@ -2794,10 +2831,10 @@
         <v>163</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>268</v>
       </c>
@@ -2814,10 +2851,10 @@
         <v>163</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>271</v>
       </c>
@@ -2834,10 +2871,10 @@
         <v>163</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>274</v>
       </c>
@@ -2854,10 +2891,10 @@
         <v>167</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>277</v>
       </c>
@@ -2874,10 +2911,10 @@
         <v>171</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>280</v>
       </c>
@@ -2894,10 +2931,10 @@
         <v>163</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>283</v>
       </c>
@@ -2914,10 +2951,10 @@
         <v>163</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>286</v>
       </c>
@@ -2934,10 +2971,10 @@
         <v>163</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>289</v>
       </c>
@@ -2954,10 +2991,10 @@
         <v>163</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>292</v>
       </c>
@@ -2974,10 +3011,10 @@
         <v>163</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>295</v>
       </c>
@@ -2994,7 +3031,7 @@
         <v>163</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/NWU Tech Trends Data.xlsx
+++ b/NWU Tech Trends Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aussc\OneDrive\Documents\GitHub\CMPG323-Project-4-37460366\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E770763-C845-4571-8389-54D28D9176CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C82A33-AE6C-48FA-9470-C771B811D3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="15192" windowHeight="10284" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC1F3F-070D-4831-8C1F-2CBF832928B6}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,6 +1569,9 @@
       <c r="D14" s="2">
         <v>44953</v>
       </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1583,6 +1586,9 @@
       <c r="D15" s="2">
         <v>44954</v>
       </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1597,8 +1603,11 @@
       <c r="D16" s="2">
         <v>44955</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1611,8 +1620,11 @@
       <c r="D17" s="2">
         <v>44956</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1625,8 +1637,11 @@
       <c r="D18" s="2">
         <v>44957</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1639,8 +1654,11 @@
       <c r="D19" s="2">
         <v>44958</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -1653,8 +1671,11 @@
       <c r="D20" s="2">
         <v>44959</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1667,8 +1688,11 @@
       <c r="D21" s="2">
         <v>44960</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -1681,8 +1705,11 @@
       <c r="D22" s="2">
         <v>44961</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -1695,8 +1722,11 @@
       <c r="D23" s="2">
         <v>44962</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -1709,8 +1739,11 @@
       <c r="D24" s="2">
         <v>44963</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -1723,8 +1756,11 @@
       <c r="D25" s="2">
         <v>44964</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -1737,8 +1773,11 @@
       <c r="D26" s="2">
         <v>44965</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -1751,8 +1790,11 @@
       <c r="D27" s="2">
         <v>44966</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -1765,8 +1807,11 @@
       <c r="D28" s="2">
         <v>44967</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>86</v>
       </c>
@@ -1779,8 +1824,11 @@
       <c r="D29" s="2">
         <v>44968</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -1793,8 +1841,11 @@
       <c r="D30" s="2">
         <v>44969</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -1807,8 +1858,11 @@
       <c r="D31" s="2">
         <v>44970</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -1821,8 +1875,11 @@
       <c r="D32" s="2">
         <v>44971</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -1835,8 +1892,11 @@
       <c r="D33" s="2">
         <v>44972</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -1849,8 +1909,11 @@
       <c r="D34" s="2">
         <v>44973</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="D35" s="2">
         <v>44974</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -1877,8 +1943,11 @@
       <c r="D36" s="2">
         <v>44975</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -1891,8 +1960,11 @@
       <c r="D37" s="2">
         <v>44976</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -1905,8 +1977,11 @@
       <c r="D38" s="2">
         <v>44977</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -1919,8 +1994,11 @@
       <c r="D39" s="2">
         <v>44978</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -1933,8 +2011,11 @@
       <c r="D40" s="2">
         <v>44979</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -1947,8 +2028,11 @@
       <c r="D41" s="2">
         <v>44980</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -1961,8 +2045,11 @@
       <c r="D42" s="2">
         <v>44981</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
@@ -1975,8 +2062,11 @@
       <c r="D43" s="2">
         <v>44982</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
@@ -1989,8 +2079,11 @@
       <c r="D44" s="2">
         <v>44983</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="D45" s="2">
         <v>44984</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -2017,8 +2113,11 @@
       <c r="D46" s="2">
         <v>44985</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -2031,8 +2130,11 @@
       <c r="D47" s="2">
         <v>44986</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>143</v>
       </c>
@@ -2045,8 +2147,11 @@
       <c r="D48" s="2">
         <v>44987</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="D49" s="2">
         <v>44988</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -2073,8 +2181,11 @@
       <c r="D50" s="2">
         <v>44989</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
@@ -2086,6 +2197,9 @@
       </c>
       <c r="D51" s="2">
         <v>44990</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/NWU Tech Trends Data.xlsx
+++ b/NWU Tech Trends Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aussc\OneDrive\Documents\GitHub\CMPG323-Project-4-37460366\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C82A33-AE6C-48FA-9470-C771B811D3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E591FB-CFD5-45C1-8117-615F97D32B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="15192" windowHeight="10284" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC1F3F-070D-4831-8C1F-2CBF832928B6}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D331589-AA9D-4074-9BAA-5A515B94893D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,6 +2267,9 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2287,6 +2290,9 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2307,6 +2313,9 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -2327,6 +2336,9 @@
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2347,6 +2359,9 @@
       <c r="F6" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -2367,6 +2382,9 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -2387,6 +2405,9 @@
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -2407,6 +2428,9 @@
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2427,6 +2451,9 @@
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -2447,6 +2474,9 @@
       <c r="F11" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -2467,6 +2497,9 @@
       <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -2487,6 +2520,9 @@
       <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2506,6 +2542,9 @@
       </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">

--- a/NWU Tech Trends Data.xlsx
+++ b/NWU Tech Trends Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aussc\OneDrive\Documents\GitHub\CMPG323-Project-4-37460366\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E591FB-CFD5-45C1-8117-615F97D32B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50D9FA-7DAB-438F-878A-664AA74282AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC1F3F-070D-4831-8C1F-2CBF832928B6}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D331589-AA9D-4074-9BAA-5A515B94893D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,6 +2223,7 @@
     <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2566,6 +2567,9 @@
       <c r="F15" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -2586,8 +2590,11 @@
       <c r="F16" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>208</v>
       </c>
@@ -2606,8 +2613,11 @@
       <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>211</v>
       </c>
@@ -2626,8 +2636,11 @@
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>214</v>
       </c>
@@ -2646,8 +2659,11 @@
       <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>217</v>
       </c>
@@ -2666,8 +2682,11 @@
       <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>220</v>
       </c>
@@ -2686,8 +2705,11 @@
       <c r="F21" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -2706,8 +2728,11 @@
       <c r="F22" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>226</v>
       </c>
@@ -2726,8 +2751,11 @@
       <c r="F23" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>229</v>
       </c>
@@ -2746,8 +2774,11 @@
       <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -2766,8 +2797,11 @@
       <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>235</v>
       </c>
@@ -2786,8 +2820,11 @@
       <c r="F26" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>238</v>
       </c>
@@ -2806,8 +2843,11 @@
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>241</v>
       </c>
@@ -2826,8 +2866,11 @@
       <c r="F28" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>244</v>
       </c>
@@ -2846,8 +2889,11 @@
       <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>247</v>
       </c>
@@ -2866,8 +2912,11 @@
       <c r="F30" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>250</v>
       </c>
@@ -2886,8 +2935,11 @@
       <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>253</v>
       </c>
@@ -2906,8 +2958,11 @@
       <c r="F32" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>256</v>
       </c>
@@ -2926,8 +2981,11 @@
       <c r="F33" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>259</v>
       </c>
@@ -2946,8 +3004,11 @@
       <c r="F34" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>262</v>
       </c>
@@ -2966,8 +3027,11 @@
       <c r="F35" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>265</v>
       </c>
@@ -2986,8 +3050,11 @@
       <c r="F36" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>268</v>
       </c>
@@ -3006,8 +3073,11 @@
       <c r="F37" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>271</v>
       </c>
@@ -3026,8 +3096,11 @@
       <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>274</v>
       </c>
@@ -3046,8 +3119,11 @@
       <c r="F39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>277</v>
       </c>
@@ -3066,8 +3142,11 @@
       <c r="F40" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>280</v>
       </c>
@@ -3086,8 +3165,11 @@
       <c r="F41" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>283</v>
       </c>
@@ -3106,8 +3188,11 @@
       <c r="F42" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>286</v>
       </c>
@@ -3126,8 +3211,11 @@
       <c r="F43" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>289</v>
       </c>
@@ -3146,8 +3234,11 @@
       <c r="F44" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>292</v>
       </c>
@@ -3166,8 +3257,11 @@
       <c r="F45" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>295</v>
       </c>
@@ -3185,6 +3279,9 @@
       </c>
       <c r="F46" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/NWU Tech Trends Data.xlsx
+++ b/NWU Tech Trends Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aussc\OneDrive\Documents\GitHub\CMPG323-Project-4-37460366\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50D9FA-7DAB-438F-878A-664AA74282AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7425360E-DF3D-4D5C-ADB9-157B8451E3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{CD795CCD-582F-4BD0-AF39-75E63E90AABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="299">
   <si>
     <t>ClientID</t>
   </si>
@@ -51,474 +51,477 @@
     <t>DateOnboarded</t>
   </si>
   <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>68c53a7b-2b9e-4dbe-a536-4d1a2f27a0b7</t>
+  </si>
+  <si>
+    <t>Tech Innovators</t>
+  </si>
+  <si>
+    <t>contact1@techinnovators.com</t>
+  </si>
+  <si>
+    <t>77af89a2-7c76-4263-a8ee-2b25541f89af</t>
+  </si>
+  <si>
+    <t>Data Dynamics</t>
+  </si>
+  <si>
+    <t>contact2@datadynamics.com</t>
+  </si>
+  <si>
+    <t>f5a92c1a-59b0-496f-8d17-64bdf59d3f6a</t>
+  </si>
+  <si>
+    <t>Cloud Solutions</t>
+  </si>
+  <si>
+    <t>contact3@cloudsolutions.com</t>
+  </si>
+  <si>
+    <t>c1c1fbb6-9a94-41b7-94f8-7a621aa1a7b6</t>
+  </si>
+  <si>
+    <t>AI Pioneers</t>
+  </si>
+  <si>
+    <t>contact4@aipioneers.com</t>
+  </si>
+  <si>
+    <t>9e58f2fa-d8a8-46c7-988a-2bb0c9c78f94</t>
+  </si>
+  <si>
+    <t>Green Energy Corp</t>
+  </si>
+  <si>
+    <t>contact5@greenenergy.com</t>
+  </si>
+  <si>
+    <t>7354b235-763d-4031-a92b-17249e674c94</t>
+  </si>
+  <si>
+    <t>Fintech Leaders</t>
+  </si>
+  <si>
+    <t>contact6@fintechleaders.com</t>
+  </si>
+  <si>
+    <t>5027f96e-1544-4992-848e-b8a3f56ccf4e</t>
+  </si>
+  <si>
+    <t>HealthTech Group</t>
+  </si>
+  <si>
+    <t>contact7@healthtech.com</t>
+  </si>
+  <si>
+    <t>d1c5e2d9-394b-43a6-8c56-d8f19a59b25e</t>
+  </si>
+  <si>
+    <t>EduTech Innovators</t>
+  </si>
+  <si>
+    <t>contact8@edutech.com</t>
+  </si>
+  <si>
+    <t>6b07b6a3-60e6-453d-b93c-726d17445f29</t>
+  </si>
+  <si>
+    <t>Smart Homes Inc.</t>
+  </si>
+  <si>
+    <t>contact9@smarthomes.com</t>
+  </si>
+  <si>
+    <t>1e16a30c-bdbc-44b6-882d-e1d58e5f7f3b</t>
+  </si>
+  <si>
+    <t>AutoTech Solutions</t>
+  </si>
+  <si>
+    <t>contact10@autotech.com</t>
+  </si>
+  <si>
+    <t>aae3c38e-2da5-4ba8-bc2b-b843f4ed6e50</t>
+  </si>
+  <si>
+    <t>Space Explorers</t>
+  </si>
+  <si>
+    <t>contact11@spaceexplorers.com</t>
+  </si>
+  <si>
+    <t>e5ad76be-bcdc-43a2-a8c5-73c1a2eec27e</t>
+  </si>
+  <si>
+    <t>BioTech Innovations</t>
+  </si>
+  <si>
+    <t>contact12@biotech.com</t>
+  </si>
+  <si>
+    <t>57a6586a-7ef2-4d67-839b-4a8a15970848</t>
+  </si>
+  <si>
+    <t>Quantum Computing</t>
+  </si>
+  <si>
+    <t>contact13@quantumcomputing.com</t>
+  </si>
+  <si>
+    <t>a95839d2-780b-4484-9955-52c2c16fa46f</t>
+  </si>
+  <si>
+    <t>Cybersecurity Pros</t>
+  </si>
+  <si>
+    <t>contact14@cyberpros.com</t>
+  </si>
+  <si>
+    <t>8ffb5d76-4954-4e18-8f5f-8243827fa212</t>
+  </si>
+  <si>
+    <t>Robotics Ventures</t>
+  </si>
+  <si>
+    <t>contact15@roboticsventures.com</t>
+  </si>
+  <si>
+    <t>1f5d9c9b-49f0-4f23-85c1-74c1b8b4e21f</t>
+  </si>
+  <si>
+    <t>Blockchain Pioneers</t>
+  </si>
+  <si>
+    <t>contact16@blockchain.com</t>
+  </si>
+  <si>
+    <t>66e56de0-623a-4b40-a498-0b3a77f04c16</t>
+  </si>
+  <si>
+    <t>AgriTech Innovators</t>
+  </si>
+  <si>
+    <t>contact17@agritech.com</t>
+  </si>
+  <si>
+    <t>493c2566-5533-476d-8a13-c4312a0a2f8b</t>
+  </si>
+  <si>
+    <t>Digital Nomads</t>
+  </si>
+  <si>
+    <t>contact18@digitalnomads.com</t>
+  </si>
+  <si>
+    <t>728ea0fb-c5e5-4f23-a7ff-1b6f88b1d5f6</t>
+  </si>
+  <si>
+    <t>AI Healthcare</t>
+  </si>
+  <si>
+    <t>contact19@aihealthcare.com</t>
+  </si>
+  <si>
+    <t>4f03b878-8be8-4f6b-a5e6-129d42bf0b34</t>
+  </si>
+  <si>
+    <t>E-Commerce Wizards</t>
+  </si>
+  <si>
+    <t>contact20@ecommerce.com</t>
+  </si>
+  <si>
+    <t>8be2454b-7a74-4dbe-bd53-b650e1a5a2b4</t>
+  </si>
+  <si>
+    <t>VR/AR Experiences</t>
+  </si>
+  <si>
+    <t>contact21@vrexperiences.com</t>
+  </si>
+  <si>
+    <t>acd4b8fb-f9cb-4139-990e-1e962b7a88fa</t>
+  </si>
+  <si>
+    <t>Autonomous Vehicles</t>
+  </si>
+  <si>
+    <t>contact22@autovehicles.com</t>
+  </si>
+  <si>
+    <t>92e28dfc-9f74-41a4-9d91-e77a3d5a1c3b</t>
+  </si>
+  <si>
+    <t>Fintech Ventures</t>
+  </si>
+  <si>
+    <t>contact23@fintechventures.com</t>
+  </si>
+  <si>
+    <t>5e79a6f3-5c49-4c47-9578-2e1a2b53c9fc</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>contact24@renewable.com</t>
+  </si>
+  <si>
+    <t>c41d7c1f-f70c-4d42-94f3-2a4f3d4e2f94</t>
+  </si>
+  <si>
+    <t>SpaceTech Partners</t>
+  </si>
+  <si>
+    <t>contact25@spacetech.com</t>
+  </si>
+  <si>
+    <t>9f61743a-2a4f-4bc5-89e9-5c0b75607b6a</t>
+  </si>
+  <si>
+    <t>Smart City Projects</t>
+  </si>
+  <si>
+    <t>contact26@smartcity.com</t>
+  </si>
+  <si>
+    <t>aab312df-2e45-4d6b-b357-cc54104ad2b9</t>
+  </si>
+  <si>
+    <t>AI Research Labs</t>
+  </si>
+  <si>
+    <t>contact27@airesearch.com</t>
+  </si>
+  <si>
+    <t>4e25474e-1a12-409f-9207-531c28470c6a</t>
+  </si>
+  <si>
+    <t>Crypto Innovators</t>
+  </si>
+  <si>
+    <t>contact28@crypto.com</t>
+  </si>
+  <si>
+    <t>3df36be5-493d-4915-8fc3-4ed23d742d86</t>
+  </si>
+  <si>
+    <t>GreenTech Solutions</t>
+  </si>
+  <si>
+    <t>contact29@greentech.com</t>
+  </si>
+  <si>
+    <t>a75b6f3e-542b-40f2-a129-4a9c72a86e7e</t>
+  </si>
+  <si>
+    <t>Digital Transformation</t>
+  </si>
+  <si>
+    <t>contact30@digitaltrans.com</t>
+  </si>
+  <si>
+    <t>f3b7e5a2-38a9-4a9f-8e79-fb2a2a7c7f93</t>
+  </si>
+  <si>
+    <t>AI Financials</t>
+  </si>
+  <si>
+    <t>contact31@aifinancials.com</t>
+  </si>
+  <si>
+    <t>bcb3759d-c9a7-4fa6-9a74-72a4c5b3c6ae</t>
+  </si>
+  <si>
+    <t>Quantum Ventures</t>
+  </si>
+  <si>
+    <t>contact32@quantumventures.com</t>
+  </si>
+  <si>
+    <t>4e02d7af-2b47-48d5-9d7f-3b85f3a3c6f3</t>
+  </si>
+  <si>
+    <t>VR Innovators</t>
+  </si>
+  <si>
+    <t>contact33@vrinnovators.com</t>
+  </si>
+  <si>
+    <t>85a3c6d5-c94a-49d6-b8f4-0f39b3c7c9fe</t>
+  </si>
+  <si>
+    <t>AutoTech Innovators</t>
+  </si>
+  <si>
+    <t>contact34@autotechinnovators.com</t>
+  </si>
+  <si>
+    <t>71f5b2e7-3c14-41d5-b8f5-4b9f4a7c2c7f</t>
+  </si>
+  <si>
+    <t>AI Solutions</t>
+  </si>
+  <si>
+    <t>contact35@aisolutions.com</t>
+  </si>
+  <si>
+    <t>4b78c3e9-5a4e-43f7-bc47-1a2b5a6c2d7f</t>
+  </si>
+  <si>
+    <t>Fintech Masters</t>
+  </si>
+  <si>
+    <t>contact36@fintechmasters.com</t>
+  </si>
+  <si>
+    <t>67f2b6f7-3c15-45f9-8b76-3f9a5b7f3d9a</t>
+  </si>
+  <si>
+    <t>Renewable Innovations</t>
+  </si>
+  <si>
+    <t>contact37@renewableinnovations.com</t>
+  </si>
+  <si>
+    <t>89b6f3e7-4c27-49f3-b7a2-2f39a5c7c8f3</t>
+  </si>
+  <si>
+    <t>Cybersecurity Labs</t>
+  </si>
+  <si>
+    <t>contact38@cyberlabs.com</t>
+  </si>
+  <si>
+    <t>6c8f2d3b-5d4a-4a8b-946c-2e9a4b5c8f47</t>
+  </si>
+  <si>
+    <t>HealthTech Ventures</t>
+  </si>
+  <si>
+    <t>contact39@healthventures.com</t>
+  </si>
+  <si>
+    <t>74f3c2d8-4a3d-40f8-b5c7-2a6b4f3d7f89</t>
+  </si>
+  <si>
+    <t>AI Energy Solutions</t>
+  </si>
+  <si>
+    <t>contact40@aienergy.com</t>
+  </si>
+  <si>
+    <t>5d7f2e4a-6b3c-4b6f-9f47-1c8b5e3c7f9a</t>
+  </si>
+  <si>
+    <t>VR Labs</t>
+  </si>
+  <si>
+    <t>contact41@vrlabs.com</t>
+  </si>
+  <si>
+    <t>82f9c3e4-5d7f-44b8-b5c7-2a9f4d7c8b6f</t>
+  </si>
+  <si>
+    <t>AI Enterprises</t>
+  </si>
+  <si>
+    <t>contact42@aienterprises.com</t>
+  </si>
+  <si>
+    <t>7f5c4d8e-6b3c-4f6b-8f4a-3b9f4e5c7d8f</t>
+  </si>
+  <si>
+    <t>Blockchain Masters</t>
+  </si>
+  <si>
+    <t>contact43@blockchainmasters.com</t>
+  </si>
+  <si>
+    <t>9a8f6c5d-3e2a-4f9b-8f4c-1a7d4c5b7e8f</t>
+  </si>
+  <si>
+    <t>GreenTech Ventures</t>
+  </si>
+  <si>
+    <t>contact44@greentechventures.com</t>
+  </si>
+  <si>
+    <t>7b3e4f8d-9a6b-4d7f-b4f9-2a8f4c5d7e9b</t>
+  </si>
+  <si>
+    <t>EduTech Leaders</t>
+  </si>
+  <si>
+    <t>contact45@edutechleaders.com</t>
+  </si>
+  <si>
+    <t>8d6f7e5c-3c2a-4b9f-8f5a-3d7f4c5b6a9e</t>
+  </si>
+  <si>
+    <t>AI in Finance</t>
+  </si>
+  <si>
+    <t>contact46@aiinfinance.com</t>
+  </si>
+  <si>
+    <t>6a5b3c8f-7d2e-4b9f-8f5d-2f9b4d5c7e8f</t>
+  </si>
+  <si>
+    <t>Smart Tech</t>
+  </si>
+  <si>
+    <t>contact47@smarttech.com</t>
+  </si>
+  <si>
+    <t>7c8f4d6e-3a2f-4f8b-9f5c-1d7e4c5b8f9a</t>
+  </si>
+  <si>
+    <t>E-Commerce Innovators</t>
+  </si>
+  <si>
+    <t>contact48@ecommerceinnovators.com</t>
+  </si>
+  <si>
+    <t>8e9f5d3c-2b4a-4f6b-8f9c-3a7e4c5d7b8f</t>
+  </si>
+  <si>
+    <t>Space Ventures</t>
+  </si>
+  <si>
+    <t>contact49@spaceventures.com</t>
+  </si>
+  <si>
+    <t>9b7f4d8c-3e2f-4f9b-8f5a-2c7e4b5d6a9f</t>
+  </si>
+  <si>
+    <t>Robotics Innovators</t>
+  </si>
+  <si>
+    <t>contact50@roboticsinnovators.com</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ProjectDescription</t>
+  </si>
+  <si>
+    <t>ProjectCreationDate</t>
+  </si>
+  <si>
+    <t>ProjectStatus</t>
+  </si>
+  <si>
     <t>Test Passed</t>
   </si>
   <si>
-    <t>68c53a7b-2b9e-4dbe-a536-4d1a2f27a0b7</t>
-  </si>
-  <si>
-    <t>Tech Innovators</t>
-  </si>
-  <si>
-    <t>contact1@techinnovators.com</t>
-  </si>
-  <si>
-    <t>77af89a2-7c76-4263-a8ee-2b25541f89af</t>
-  </si>
-  <si>
-    <t>Data Dynamics</t>
-  </si>
-  <si>
-    <t>contact2@datadynamics.com</t>
-  </si>
-  <si>
-    <t>f5a92c1a-59b0-496f-8d17-64bdf59d3f6a</t>
-  </si>
-  <si>
-    <t>Cloud Solutions</t>
-  </si>
-  <si>
-    <t>contact3@cloudsolutions.com</t>
-  </si>
-  <si>
-    <t>c1c1fbb6-9a94-41b7-94f8-7a621aa1a7b6</t>
-  </si>
-  <si>
-    <t>AI Pioneers</t>
-  </si>
-  <si>
-    <t>contact4@aipioneers.com</t>
-  </si>
-  <si>
-    <t>9e58f2fa-d8a8-46c7-988a-2bb0c9c78f94</t>
-  </si>
-  <si>
-    <t>Green Energy Corp</t>
-  </si>
-  <si>
-    <t>contact5@greenenergy.com</t>
-  </si>
-  <si>
-    <t>7354b235-763d-4031-a92b-17249e674c94</t>
-  </si>
-  <si>
-    <t>Fintech Leaders</t>
-  </si>
-  <si>
-    <t>contact6@fintechleaders.com</t>
-  </si>
-  <si>
-    <t>5027f96e-1544-4992-848e-b8a3f56ccf4e</t>
-  </si>
-  <si>
-    <t>HealthTech Group</t>
-  </si>
-  <si>
-    <t>contact7@healthtech.com</t>
-  </si>
-  <si>
-    <t>d1c5e2d9-394b-43a6-8c56-d8f19a59b25e</t>
-  </si>
-  <si>
-    <t>EduTech Innovators</t>
-  </si>
-  <si>
-    <t>contact8@edutech.com</t>
-  </si>
-  <si>
-    <t>6b07b6a3-60e6-453d-b93c-726d17445f29</t>
-  </si>
-  <si>
-    <t>Smart Homes Inc.</t>
-  </si>
-  <si>
-    <t>contact9@smarthomes.com</t>
-  </si>
-  <si>
-    <t>1e16a30c-bdbc-44b6-882d-e1d58e5f7f3b</t>
-  </si>
-  <si>
-    <t>AutoTech Solutions</t>
-  </si>
-  <si>
-    <t>contact10@autotech.com</t>
-  </si>
-  <si>
-    <t>aae3c38e-2da5-4ba8-bc2b-b843f4ed6e50</t>
-  </si>
-  <si>
-    <t>Space Explorers</t>
-  </si>
-  <si>
-    <t>contact11@spaceexplorers.com</t>
-  </si>
-  <si>
-    <t>e5ad76be-bcdc-43a2-a8c5-73c1a2eec27e</t>
-  </si>
-  <si>
-    <t>BioTech Innovations</t>
-  </si>
-  <si>
-    <t>contact12@biotech.com</t>
-  </si>
-  <si>
-    <t>57a6586a-7ef2-4d67-839b-4a8a15970848</t>
-  </si>
-  <si>
-    <t>Quantum Computing</t>
-  </si>
-  <si>
-    <t>contact13@quantumcomputing.com</t>
-  </si>
-  <si>
-    <t>a95839d2-780b-4484-9955-52c2c16fa46f</t>
-  </si>
-  <si>
-    <t>Cybersecurity Pros</t>
-  </si>
-  <si>
-    <t>contact14@cyberpros.com</t>
-  </si>
-  <si>
-    <t>8ffb5d76-4954-4e18-8f5f-8243827fa212</t>
-  </si>
-  <si>
-    <t>Robotics Ventures</t>
-  </si>
-  <si>
-    <t>contact15@roboticsventures.com</t>
-  </si>
-  <si>
-    <t>1f5d9c9b-49f0-4f23-85c1-74c1b8b4e21f</t>
-  </si>
-  <si>
-    <t>Blockchain Pioneers</t>
-  </si>
-  <si>
-    <t>contact16@blockchain.com</t>
-  </si>
-  <si>
-    <t>66e56de0-623a-4b40-a498-0b3a77f04c16</t>
-  </si>
-  <si>
-    <t>AgriTech Innovators</t>
-  </si>
-  <si>
-    <t>contact17@agritech.com</t>
-  </si>
-  <si>
-    <t>493c2566-5533-476d-8a13-c4312a0a2f8b</t>
-  </si>
-  <si>
-    <t>Digital Nomads</t>
-  </si>
-  <si>
-    <t>contact18@digitalnomads.com</t>
-  </si>
-  <si>
-    <t>728ea0fb-c5e5-4f23-a7ff-1b6f88b1d5f6</t>
-  </si>
-  <si>
-    <t>AI Healthcare</t>
-  </si>
-  <si>
-    <t>contact19@aihealthcare.com</t>
-  </si>
-  <si>
-    <t>4f03b878-8be8-4f6b-a5e6-129d42bf0b34</t>
-  </si>
-  <si>
-    <t>E-Commerce Wizards</t>
-  </si>
-  <si>
-    <t>contact20@ecommerce.com</t>
-  </si>
-  <si>
-    <t>8be2454b-7a74-4dbe-bd53-b650e1a5a2b4</t>
-  </si>
-  <si>
-    <t>VR/AR Experiences</t>
-  </si>
-  <si>
-    <t>contact21@vrexperiences.com</t>
-  </si>
-  <si>
-    <t>acd4b8fb-f9cb-4139-990e-1e962b7a88fa</t>
-  </si>
-  <si>
-    <t>Autonomous Vehicles</t>
-  </si>
-  <si>
-    <t>contact22@autovehicles.com</t>
-  </si>
-  <si>
-    <t>92e28dfc-9f74-41a4-9d91-e77a3d5a1c3b</t>
-  </si>
-  <si>
-    <t>Fintech Ventures</t>
-  </si>
-  <si>
-    <t>contact23@fintechventures.com</t>
-  </si>
-  <si>
-    <t>5e79a6f3-5c49-4c47-9578-2e1a2b53c9fc</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>contact24@renewable.com</t>
-  </si>
-  <si>
-    <t>c41d7c1f-f70c-4d42-94f3-2a4f3d4e2f94</t>
-  </si>
-  <si>
-    <t>SpaceTech Partners</t>
-  </si>
-  <si>
-    <t>contact25@spacetech.com</t>
-  </si>
-  <si>
-    <t>9f61743a-2a4f-4bc5-89e9-5c0b75607b6a</t>
-  </si>
-  <si>
-    <t>Smart City Projects</t>
-  </si>
-  <si>
-    <t>contact26@smartcity.com</t>
-  </si>
-  <si>
-    <t>aab312df-2e45-4d6b-b357-cc54104ad2b9</t>
-  </si>
-  <si>
-    <t>AI Research Labs</t>
-  </si>
-  <si>
-    <t>contact27@airesearch.com</t>
-  </si>
-  <si>
-    <t>4e25474e-1a12-409f-9207-531c28470c6a</t>
-  </si>
-  <si>
-    <t>Crypto Innovators</t>
-  </si>
-  <si>
-    <t>contact28@crypto.com</t>
-  </si>
-  <si>
-    <t>3df36be5-493d-4915-8fc3-4ed23d742d86</t>
-  </si>
-  <si>
-    <t>GreenTech Solutions</t>
-  </si>
-  <si>
-    <t>contact29@greentech.com</t>
-  </si>
-  <si>
-    <t>a75b6f3e-542b-40f2-a129-4a9c72a86e7e</t>
-  </si>
-  <si>
-    <t>Digital Transformation</t>
-  </si>
-  <si>
-    <t>contact30@digitaltrans.com</t>
-  </si>
-  <si>
-    <t>f3b7e5a2-38a9-4a9f-8e79-fb2a2a7c7f93</t>
-  </si>
-  <si>
-    <t>AI Financials</t>
-  </si>
-  <si>
-    <t>contact31@aifinancials.com</t>
-  </si>
-  <si>
-    <t>bcb3759d-c9a7-4fa6-9a74-72a4c5b3c6ae</t>
-  </si>
-  <si>
-    <t>Quantum Ventures</t>
-  </si>
-  <si>
-    <t>contact32@quantumventures.com</t>
-  </si>
-  <si>
-    <t>4e02d7af-2b47-48d5-9d7f-3b85f3a3c6f3</t>
-  </si>
-  <si>
-    <t>VR Innovators</t>
-  </si>
-  <si>
-    <t>contact33@vrinnovators.com</t>
-  </si>
-  <si>
-    <t>85a3c6d5-c94a-49d6-b8f4-0f39b3c7c9fe</t>
-  </si>
-  <si>
-    <t>AutoTech Innovators</t>
-  </si>
-  <si>
-    <t>contact34@autotechinnovators.com</t>
-  </si>
-  <si>
-    <t>71f5b2e7-3c14-41d5-b8f5-4b9f4a7c2c7f</t>
-  </si>
-  <si>
-    <t>AI Solutions</t>
-  </si>
-  <si>
-    <t>contact35@aisolutions.com</t>
-  </si>
-  <si>
-    <t>4b78c3e9-5a4e-43f7-bc47-1a2b5a6c2d7f</t>
-  </si>
-  <si>
-    <t>Fintech Masters</t>
-  </si>
-  <si>
-    <t>contact36@fintechmasters.com</t>
-  </si>
-  <si>
-    <t>67f2b6f7-3c15-45f9-8b76-3f9a5b7f3d9a</t>
-  </si>
-  <si>
-    <t>Renewable Innovations</t>
-  </si>
-  <si>
-    <t>contact37@renewableinnovations.com</t>
-  </si>
-  <si>
-    <t>89b6f3e7-4c27-49f3-b7a2-2f39a5c7c8f3</t>
-  </si>
-  <si>
-    <t>Cybersecurity Labs</t>
-  </si>
-  <si>
-    <t>contact38@cyberlabs.com</t>
-  </si>
-  <si>
-    <t>6c8f2d3b-5d4a-4a8b-946c-2e9a4b5c8f47</t>
-  </si>
-  <si>
-    <t>HealthTech Ventures</t>
-  </si>
-  <si>
-    <t>contact39@healthventures.com</t>
-  </si>
-  <si>
-    <t>74f3c2d8-4a3d-40f8-b5c7-2a6b4f3d7f89</t>
-  </si>
-  <si>
-    <t>AI Energy Solutions</t>
-  </si>
-  <si>
-    <t>contact40@aienergy.com</t>
-  </si>
-  <si>
-    <t>5d7f2e4a-6b3c-4b6f-9f47-1c8b5e3c7f9a</t>
-  </si>
-  <si>
-    <t>VR Labs</t>
-  </si>
-  <si>
-    <t>contact41@vrlabs.com</t>
-  </si>
-  <si>
-    <t>82f9c3e4-5d7f-44b8-b5c7-2a9f4d7c8b6f</t>
-  </si>
-  <si>
-    <t>AI Enterprises</t>
-  </si>
-  <si>
-    <t>contact42@aienterprises.com</t>
-  </si>
-  <si>
-    <t>7f5c4d8e-6b3c-4f6b-8f4a-3b9f4e5c7d8f</t>
-  </si>
-  <si>
-    <t>Blockchain Masters</t>
-  </si>
-  <si>
-    <t>contact43@blockchainmasters.com</t>
-  </si>
-  <si>
-    <t>9a8f6c5d-3e2a-4f9b-8f4c-1a7d4c5b7e8f</t>
-  </si>
-  <si>
-    <t>GreenTech Ventures</t>
-  </si>
-  <si>
-    <t>contact44@greentechventures.com</t>
-  </si>
-  <si>
-    <t>7b3e4f8d-9a6b-4d7f-b4f9-2a8f4c5d7e9b</t>
-  </si>
-  <si>
-    <t>EduTech Leaders</t>
-  </si>
-  <si>
-    <t>contact45@edutechleaders.com</t>
-  </si>
-  <si>
-    <t>8d6f7e5c-3c2a-4b9f-8f5a-3d7f4c5b6a9e</t>
-  </si>
-  <si>
-    <t>AI in Finance</t>
-  </si>
-  <si>
-    <t>contact46@aiinfinance.com</t>
-  </si>
-  <si>
-    <t>6a5b3c8f-7d2e-4b9f-8f5d-2f9b4d5c7e8f</t>
-  </si>
-  <si>
-    <t>Smart Tech</t>
-  </si>
-  <si>
-    <t>contact47@smarttech.com</t>
-  </si>
-  <si>
-    <t>7c8f4d6e-3a2f-4f8b-9f5c-1d7e4c5b8f9a</t>
-  </si>
-  <si>
-    <t>E-Commerce Innovators</t>
-  </si>
-  <si>
-    <t>contact48@ecommerceinnovators.com</t>
-  </si>
-  <si>
-    <t>8e9f5d3c-2b4a-4f6b-8f9c-3a7e4c5d7b8f</t>
-  </si>
-  <si>
-    <t>Space Ventures</t>
-  </si>
-  <si>
-    <t>contact49@spaceventures.com</t>
-  </si>
-  <si>
-    <t>9b7f4d8c-3e2f-4f9b-8f5a-2c7e4b5d6a9f</t>
-  </si>
-  <si>
-    <t>Robotics Innovators</t>
-  </si>
-  <si>
-    <t>contact50@roboticsinnovators.com</t>
-  </si>
-  <si>
-    <t>ProjectID</t>
-  </si>
-  <si>
-    <t>ProjectName</t>
-  </si>
-  <si>
-    <t>ProjectDescription</t>
-  </si>
-  <si>
-    <t>ProjectCreationDate</t>
-  </si>
-  <si>
-    <t>ProjectStatus</t>
-  </si>
-  <si>
     <t>1e5a67d4-26e8-4a5b-9252-7129c1d87b96</t>
   </si>
   <si>
@@ -528,40 +531,40 @@
     <t>Development of AI-driven predictive models</t>
   </si>
   <si>
+    <t>9c2f5d8a-39e6-4819-88c9-7e2bafc9f1b5</t>
+  </si>
+  <si>
+    <t>Cloud Migration</t>
+  </si>
+  <si>
+    <t>Migrating legacy systems to cloud</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>6d4b7f8c-5a29-4937-8759-1f9a8c5b2a96</t>
+  </si>
+  <si>
+    <t>VR Training Module</t>
+  </si>
+  <si>
+    <t>Creation of VR-based training programs</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>d7842f1c-4e78-4e76-b8f7-7a4b9f1d9f2e</t>
+  </si>
+  <si>
+    <t>Smart Home Integration</t>
+  </si>
+  <si>
+    <t>Developing IoT solutions for smart homes</t>
+  </si>
+  <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>9c2f5d8a-39e6-4819-88c9-7e2bafc9f1b5</t>
-  </si>
-  <si>
-    <t>Cloud Migration</t>
-  </si>
-  <si>
-    <t>Migrating legacy systems to cloud</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>6d4b7f8c-5a29-4937-8759-1f9a8c5b2a96</t>
-  </si>
-  <si>
-    <t>VR Training Module</t>
-  </si>
-  <si>
-    <t>Creation of VR-based training programs</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>d7842f1c-4e78-4e76-b8f7-7a4b9f1d9f2e</t>
-  </si>
-  <si>
-    <t>Smart Home Integration</t>
-  </si>
-  <si>
-    <t>Developing IoT solutions for smart homes</t>
   </si>
   <si>
     <t>b1c3d9e4-3d7a-4a4b-8a5f-6b1e3c4d9f47</t>
@@ -974,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -987,6 +990,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC1F3F-070D-4831-8C1F-2CBF832928B6}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,8 +1371,8 @@
       <c r="D2" s="2">
         <v>44941</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1382,8 +1388,8 @@
       <c r="D3" s="2">
         <v>44942</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1399,8 +1405,8 @@
       <c r="D4" s="2">
         <v>44943</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1416,8 +1422,8 @@
       <c r="D5" s="2">
         <v>44944</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1433,8 +1439,8 @@
       <c r="D6" s="2">
         <v>44945</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1450,8 +1456,8 @@
       <c r="D7" s="2">
         <v>44946</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1467,8 +1473,8 @@
       <c r="D8" s="2">
         <v>44947</v>
       </c>
-      <c r="E8" t="b">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1484,8 +1490,8 @@
       <c r="D9" s="2">
         <v>44948</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1501,8 +1507,8 @@
       <c r="D10" s="2">
         <v>44949</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1518,8 +1524,8 @@
       <c r="D11" s="2">
         <v>44950</v>
       </c>
-      <c r="E11" t="b">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1535,8 +1541,8 @@
       <c r="D12" s="2">
         <v>44951</v>
       </c>
-      <c r="E12" t="b">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1552,8 +1558,8 @@
       <c r="D13" s="2">
         <v>44952</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1569,8 +1575,8 @@
       <c r="D14" s="2">
         <v>44953</v>
       </c>
-      <c r="E14" t="b">
-        <v>1</v>
+      <c r="E14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1586,8 +1592,8 @@
       <c r="D15" s="2">
         <v>44954</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1603,8 +1609,8 @@
       <c r="D16" s="2">
         <v>44955</v>
       </c>
-      <c r="E16" t="b">
-        <v>1</v>
+      <c r="E16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1620,8 +1626,8 @@
       <c r="D17" s="2">
         <v>44956</v>
       </c>
-      <c r="E17" t="b">
-        <v>1</v>
+      <c r="E17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1637,8 +1643,8 @@
       <c r="D18" s="2">
         <v>44957</v>
       </c>
-      <c r="E18" t="b">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1654,8 +1660,8 @@
       <c r="D19" s="2">
         <v>44958</v>
       </c>
-      <c r="E19" t="b">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1671,8 +1677,8 @@
       <c r="D20" s="2">
         <v>44959</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1688,8 +1694,8 @@
       <c r="D21" s="2">
         <v>44960</v>
       </c>
-      <c r="E21" t="b">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1705,8 +1711,8 @@
       <c r="D22" s="2">
         <v>44961</v>
       </c>
-      <c r="E22" t="b">
-        <v>1</v>
+      <c r="E22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1722,8 +1728,8 @@
       <c r="D23" s="2">
         <v>44962</v>
       </c>
-      <c r="E23" t="b">
-        <v>1</v>
+      <c r="E23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1739,8 +1745,8 @@
       <c r="D24" s="2">
         <v>44963</v>
       </c>
-      <c r="E24" t="b">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1756,8 +1762,8 @@
       <c r="D25" s="2">
         <v>44964</v>
       </c>
-      <c r="E25" t="b">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1773,8 +1779,8 @@
       <c r="D26" s="2">
         <v>44965</v>
       </c>
-      <c r="E26" t="b">
-        <v>1</v>
+      <c r="E26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1790,8 +1796,8 @@
       <c r="D27" s="2">
         <v>44966</v>
       </c>
-      <c r="E27" t="b">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1807,8 +1813,8 @@
       <c r="D28" s="2">
         <v>44967</v>
       </c>
-      <c r="E28" t="b">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1824,8 +1830,8 @@
       <c r="D29" s="2">
         <v>44968</v>
       </c>
-      <c r="E29" t="b">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1841,8 +1847,8 @@
       <c r="D30" s="2">
         <v>44969</v>
       </c>
-      <c r="E30" t="b">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1858,8 +1864,8 @@
       <c r="D31" s="2">
         <v>44970</v>
       </c>
-      <c r="E31" t="b">
-        <v>1</v>
+      <c r="E31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1875,8 +1881,8 @@
       <c r="D32" s="2">
         <v>44971</v>
       </c>
-      <c r="E32" t="b">
-        <v>1</v>
+      <c r="E32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1892,8 +1898,8 @@
       <c r="D33" s="2">
         <v>44972</v>
       </c>
-      <c r="E33" t="b">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1909,8 +1915,8 @@
       <c r="D34" s="2">
         <v>44973</v>
       </c>
-      <c r="E34" t="b">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1926,8 +1932,8 @@
       <c r="D35" s="2">
         <v>44974</v>
       </c>
-      <c r="E35" t="b">
-        <v>1</v>
+      <c r="E35" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1943,8 +1949,8 @@
       <c r="D36" s="2">
         <v>44975</v>
       </c>
-      <c r="E36" t="b">
-        <v>1</v>
+      <c r="E36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1960,8 +1966,8 @@
       <c r="D37" s="2">
         <v>44976</v>
       </c>
-      <c r="E37" t="b">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1977,8 +1983,8 @@
       <c r="D38" s="2">
         <v>44977</v>
       </c>
-      <c r="E38" t="b">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1994,8 +2000,8 @@
       <c r="D39" s="2">
         <v>44978</v>
       </c>
-      <c r="E39" t="b">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2011,8 +2017,8 @@
       <c r="D40" s="2">
         <v>44979</v>
       </c>
-      <c r="E40" t="b">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2028,8 +2034,8 @@
       <c r="D41" s="2">
         <v>44980</v>
       </c>
-      <c r="E41" t="b">
-        <v>1</v>
+      <c r="E41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2045,8 +2051,8 @@
       <c r="D42" s="2">
         <v>44981</v>
       </c>
-      <c r="E42" t="b">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2062,8 +2068,8 @@
       <c r="D43" s="2">
         <v>44982</v>
       </c>
-      <c r="E43" t="b">
-        <v>1</v>
+      <c r="E43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2079,8 +2085,8 @@
       <c r="D44" s="2">
         <v>44983</v>
       </c>
-      <c r="E44" t="b">
-        <v>1</v>
+      <c r="E44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2096,8 +2102,8 @@
       <c r="D45" s="2">
         <v>44984</v>
       </c>
-      <c r="E45" t="b">
-        <v>1</v>
+      <c r="E45" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2113,8 +2119,8 @@
       <c r="D46" s="2">
         <v>44985</v>
       </c>
-      <c r="E46" t="b">
-        <v>1</v>
+      <c r="E46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2130,8 +2136,8 @@
       <c r="D47" s="2">
         <v>44986</v>
       </c>
-      <c r="E47" t="b">
-        <v>1</v>
+      <c r="E47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2147,8 +2153,8 @@
       <c r="D48" s="2">
         <v>44987</v>
       </c>
-      <c r="E48" t="b">
-        <v>1</v>
+      <c r="E48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2164,8 +2170,8 @@
       <c r="D49" s="2">
         <v>44988</v>
       </c>
-      <c r="E49" t="b">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2181,8 +2187,8 @@
       <c r="D50" s="2">
         <v>44989</v>
       </c>
-      <c r="E50" t="b">
-        <v>1</v>
+      <c r="E50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2198,8 +2204,8 @@
       <c r="D51" s="2">
         <v>44990</v>
       </c>
-      <c r="E51" t="b">
-        <v>1</v>
+      <c r="E51" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2211,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D331589-AA9D-4074-9BAA-5A515B94893D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,7 +2229,7 @@
     <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2246,29 +2252,29 @@
         <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2">
         <v>44958</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2291,7 +2297,7 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2314,7 +2320,7 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2332,47 +2338,47 @@
         <v>44961</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2">
         <v>44962</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2">
         <v>44963</v>
@@ -2383,65 +2389,65 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D8" s="2">
         <v>44964</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D9" s="2">
         <v>44965</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2">
         <v>44966</v>
@@ -2452,134 +2458,134 @@
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G10" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D11" s="2">
         <v>44967</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2">
         <v>44968</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="b">
+      <c r="G12" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2">
         <v>44969</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G13" t="b">
+      <c r="G13" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D14" s="2">
         <v>44970</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G14" t="b">
+      <c r="G14" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D15" s="2">
         <v>44971</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="b">
+      <c r="G15" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D16" s="2">
         <v>44972</v>
@@ -2590,19 +2596,19 @@
       <c r="F16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G16" t="b">
+      <c r="G16" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D17" s="2">
         <v>44973</v>
@@ -2613,42 +2619,42 @@
       <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G17" t="b">
+      <c r="G17" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D18" s="2">
         <v>44974</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="b">
+      <c r="G18" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D19" s="2">
         <v>44975</v>
@@ -2659,134 +2665,134 @@
       <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" t="b">
+      <c r="G19" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2">
         <v>44976</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G20" t="b">
+      <c r="G20" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D21" s="2">
         <v>44977</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G21" t="b">
+      <c r="G21" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2">
         <v>44978</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G22" t="b">
+      <c r="G22" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D23" s="2">
         <v>44979</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" t="b">
+        <v>188</v>
+      </c>
+      <c r="G23" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D24" s="2">
         <v>44980</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G24" t="b">
+      <c r="G24" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D25" s="2">
         <v>44981</v>
@@ -2797,134 +2803,134 @@
       <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G25" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D26" s="2">
         <v>44982</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G26" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D27" s="2">
         <v>44983</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="b">
+      <c r="G27" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2">
         <v>44984</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G28" t="b">
+      <c r="G28" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D29" s="2">
         <v>44985</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G29" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D30" s="2">
         <v>44986</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G30" t="b">
+      <c r="G30" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D31" s="2">
         <v>44987</v>
@@ -2935,19 +2941,19 @@
       <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G31" t="b">
+      <c r="G31" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D32" s="2">
         <v>44988</v>
@@ -2958,157 +2964,157 @@
       <c r="F32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G32" t="b">
+      <c r="G32" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D33" s="2">
         <v>44989</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" t="b">
+        <v>197</v>
+      </c>
+      <c r="G33" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D34" s="2">
         <v>44990</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G34" t="b">
+      <c r="G34" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D35" s="2">
         <v>44991</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" t="b">
+        <v>224</v>
+      </c>
+      <c r="G35" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D36" s="2">
         <v>44992</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G36" t="b">
+      <c r="G36" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D37" s="2">
         <v>44993</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G37" t="b">
+      <c r="G37" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D38" s="2">
         <v>44994</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G38" t="b">
+      <c r="G38" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D39" s="2">
         <v>44995</v>
@@ -3119,19 +3125,19 @@
       <c r="F39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G39" t="b">
+      <c r="G39" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D40" s="2">
         <v>44996</v>
@@ -3142,145 +3148,145 @@
       <c r="F40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G40" t="b">
+      <c r="G40" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D41" s="2">
         <v>44997</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G41" t="b">
+      <c r="G41" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D42" s="2">
         <v>44998</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G42" t="b">
+      <c r="G42" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D43" s="2">
         <v>44999</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G43" t="b">
+      <c r="G43" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D44" s="2">
         <v>45000</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G44" t="b">
+      <c r="G44" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D45" s="2">
         <v>45001</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G45" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D46" s="2">
         <v>45002</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G46" t="b">
+      <c r="G46" s="5" t="b">
         <v>1</v>
       </c>
     </row>
